--- a/sd.xlsx
+++ b/sd.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="122">
   <si>
     <t>Attribute Name</t>
   </si>
@@ -352,6 +352,12 @@
     <t>Sudhagar/Manogna</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>link2 4</t>
   </si>
   <si>
@@ -387,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -473,9 +479,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,96 +586,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -596,6 +595,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,7 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +646,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,73 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,25 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,49 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,32 +898,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -936,7 +916,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,7 +925,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,17 +975,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,13 +999,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,130 +1011,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16179,75 +16185,83 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="77.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>110</v>
       </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>117</v>
+      <c r="A8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>118</v>
+      <c r="A9" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="Link1 1" tooltip="https://www.facebook.com/favicon.ico"/>
-    <hyperlink ref="A9" r:id="rId2" display="Link3 9"/>
-    <hyperlink ref="A10" r:id="rId3" display="Link12 1"/>
+    <hyperlink ref="A9" r:id="rId1" display="Link1 1" tooltip="https://www.facebook.com/favicon.ico"/>
+    <hyperlink ref="A10" r:id="rId2" display="Link3 9"/>
+    <hyperlink ref="A11" r:id="rId3" display="Link12 1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
